--- a/Test Plan - Mobile.xlsx
+++ b/Test Plan - Mobile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunji\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunji\Desktop\Damilola Egunjobi - billable_hours Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -658,7 +658,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -769,110 +769,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -880,6 +777,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -893,41 +851,96 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -935,25 +948,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1440,21 +1458,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="85"/>
-      <c r="G1" s="86"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="H1" s="15" t="s">
         <v>4</v>
       </c>
@@ -1466,10 +1484,10 @@
       <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="19" t="s">
         <v>17</v>
       </c>
@@ -1500,10 +1518,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
@@ -1542,53 +1560,53 @@
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="2"/>
       <c r="F7" s="29">
         <v>1</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>2</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="2"/>
       <c r="F8" s="30">
         <v>2</v>
@@ -1599,24 +1617,24 @@
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="59"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="32">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="2"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -1632,15 +1650,15 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -1652,24 +1670,24 @@
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="49" t="s">
+      <c r="E13" s="77"/>
+      <c r="F13" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="49" t="s">
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
@@ -1678,78 +1696,78 @@
       <c r="B14" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="64" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="64"/>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="87" t="s">
+      <c r="G14" s="63"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="73" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="75" t="s">
+      <c r="E15" s="59"/>
+      <c r="F15" s="56" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="76" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="78" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>2</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="81" t="s">
+      <c r="E17" s="55"/>
+      <c r="F17" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="70" t="s">
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
@@ -1758,205 +1776,238 @@
       <c r="B18" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="64" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="64"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="87" t="s">
+      <c r="G18" s="63"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="73" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="75" t="s">
+      <c r="E19" s="59"/>
+      <c r="F19" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="75" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="75" t="s">
+      <c r="E20" s="57"/>
+      <c r="F20" s="56" t="s">
         <v>98</v>
       </c>
       <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="75" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="75" t="s">
+      <c r="E21" s="57"/>
+      <c r="F21" s="56" t="s">
         <v>99</v>
       </c>
       <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="76" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="78" t="s">
+      <c r="E22" s="41"/>
+      <c r="F22" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="95"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
         <v>4</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="66" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="66" t="s">
+      <c r="E23" s="62"/>
+      <c r="F23" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="87" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="75" t="s">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="75" t="s">
+      <c r="E24" s="57"/>
+      <c r="F24" s="56" t="s">
         <v>101</v>
       </c>
       <c r="G24" s="58"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="75" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="75" t="s">
+      <c r="E25" s="57"/>
+      <c r="F25" s="56" t="s">
         <v>102</v>
       </c>
       <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="75" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="75" t="s">
+      <c r="E26" s="57"/>
+      <c r="F26" s="56" t="s">
         <v>103</v>
       </c>
       <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="75" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="75" t="s">
+      <c r="E27" s="57"/>
+      <c r="F27" s="56" t="s">
         <v>104</v>
       </c>
       <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="76" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="78" t="s">
+      <c r="E28" s="41"/>
+      <c r="F28" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="95"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I23:K28"/>
-    <mergeCell ref="I18:K22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I14:K16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
@@ -1967,6 +2018,14 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I23:K28"/>
+    <mergeCell ref="I18:K22"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B23:C23"/>
@@ -1978,47 +2037,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I14:K16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:K22 I23">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -2028,6 +2046,9 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G7:K7" r:id="rId1" display="Proper_data.csv"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2058,21 +2079,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
       <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
@@ -2083,10 +2104,10 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="19" t="s">
         <v>17</v>
       </c>
@@ -2115,10 +2136,10 @@
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
@@ -2128,10 +2149,10 @@
       <c r="E4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="10" t="s">
         <v>21</v>
       </c>
@@ -2154,43 +2175,43 @@
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>1</v>
       </c>
       <c r="B7" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="2"/>
       <c r="F7" s="26">
         <v>1</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
@@ -2199,19 +2220,19 @@
       <c r="B8" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="2"/>
       <c r="F8" s="27">
         <v>2</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="56" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="59"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
@@ -2220,15 +2241,15 @@
       <c r="B9" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="2"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -2244,15 +2265,15 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -2264,24 +2285,24 @@
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="49" t="s">
+      <c r="E13" s="77"/>
+      <c r="F13" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="49" t="s">
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
@@ -2290,55 +2311,55 @@
       <c r="B14" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="64" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="64"/>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="87" t="s">
+      <c r="G14" s="63"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="75" t="s">
+      <c r="E15" s="57"/>
+      <c r="F15" s="56" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="73" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="59"/>
+      <c r="F16" s="56" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
@@ -2347,21 +2368,21 @@
       <c r="B17" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="101" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="97" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="64"/>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="87" t="s">
+      <c r="G17" s="63"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
@@ -2370,41 +2391,65 @@
       <c r="B18" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="64"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="87" t="s">
+      <c r="G18" s="63"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="76" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="78" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="95"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="I14:K16"/>
     <mergeCell ref="I18:K19"/>
     <mergeCell ref="B18:C18"/>
@@ -2421,30 +2466,6 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:K19">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
@@ -2454,6 +2475,9 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G7:K7" r:id="rId1" display="Missing_Rate_data.csv"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2484,21 +2508,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
       <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
@@ -2509,10 +2533,10 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="19" t="s">
         <v>17</v>
       </c>
@@ -2541,10 +2565,10 @@
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
@@ -2554,10 +2578,10 @@
       <c r="E4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="10" t="s">
         <v>21</v>
       </c>
@@ -2580,43 +2604,43 @@
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>1</v>
       </c>
       <c r="B7" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="2"/>
       <c r="F7" s="26">
         <v>1</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
@@ -2625,19 +2649,19 @@
       <c r="B8" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="2"/>
       <c r="F8" s="27">
         <v>2</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="56" t="s">
         <v>73</v>
       </c>
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="59"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
@@ -2646,15 +2670,15 @@
       <c r="B9" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="2"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -2670,15 +2694,15 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -2690,24 +2714,24 @@
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="49" t="s">
+      <c r="E13" s="77"/>
+      <c r="F13" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="49" t="s">
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
@@ -2716,55 +2740,55 @@
       <c r="B14" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="64" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="64"/>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="87" t="s">
+      <c r="G14" s="63"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="75" t="s">
+      <c r="E15" s="57"/>
+      <c r="F15" s="56" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="73" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="59"/>
+      <c r="F16" s="56" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
@@ -2773,21 +2797,21 @@
       <c r="B17" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="101" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="97" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="64"/>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="87" t="s">
+      <c r="G17" s="63"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
@@ -2796,38 +2820,38 @@
       <c r="B18" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="64"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="87" t="s">
+      <c r="G18" s="63"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="76" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="78" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="95"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="38" t="s">
@@ -2839,27 +2863,13 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:K7"/>
@@ -2872,13 +2882,27 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:K19">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
@@ -2890,6 +2914,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
+    <hyperlink ref="G7:K7" r:id="rId2" display="Missing_Project_data.csv"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -2901,7 +2926,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:E11"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2921,21 +2946,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
       <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
@@ -2946,10 +2971,10 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="19" t="s">
         <v>17</v>
       </c>
@@ -2978,10 +3003,10 @@
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
@@ -2991,10 +3016,10 @@
       <c r="E4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="10" t="s">
         <v>21</v>
       </c>
@@ -3017,43 +3042,43 @@
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>1</v>
       </c>
       <c r="B7" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="2"/>
       <c r="F7" s="26">
         <v>1</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
@@ -3062,19 +3087,19 @@
       <c r="B8" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="2"/>
       <c r="F8" s="27">
         <v>2</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="56" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="59"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
@@ -3083,15 +3108,15 @@
       <c r="B9" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="2"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -3107,15 +3132,15 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -3127,24 +3152,24 @@
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="49" t="s">
+      <c r="E13" s="77"/>
+      <c r="F13" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="49" t="s">
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
@@ -3153,55 +3178,55 @@
       <c r="B14" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="64" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="64"/>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="87" t="s">
+      <c r="G14" s="63"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="75" t="s">
+      <c r="E15" s="57"/>
+      <c r="F15" s="56" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="73" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="59"/>
+      <c r="F16" s="56" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
@@ -3210,21 +3235,21 @@
       <c r="B17" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="101" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="97" t="s">
         <v>75</v>
       </c>
       <c r="E17" s="64"/>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="87" t="s">
+      <c r="G17" s="63"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
@@ -3233,62 +3258,48 @@
       <c r="B18" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="64"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="87" t="s">
+      <c r="G18" s="63"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="76" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="78" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="95"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:K7"/>
@@ -3301,13 +3312,27 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:K19">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -3317,6 +3342,9 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G7:K7" r:id="rId1" display="Missing_Date_data.csv"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3347,21 +3375,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
       <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
@@ -3372,10 +3400,10 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="19" t="s">
         <v>17</v>
       </c>
@@ -3404,10 +3432,10 @@
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
@@ -3417,10 +3445,10 @@
       <c r="E4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="10" t="s">
         <v>21</v>
       </c>
@@ -3443,64 +3471,64 @@
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>1</v>
       </c>
       <c r="B7" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="2"/>
       <c r="F7" s="26">
         <v>1</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
         <v>2</v>
       </c>
       <c r="B8" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="2"/>
       <c r="F8" s="27">
         <v>2</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="55"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="110"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
@@ -3509,19 +3537,19 @@
       <c r="B9" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="2"/>
       <c r="F9" s="27">
         <v>3</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="56" t="s">
         <v>78</v>
       </c>
       <c r="H9" s="58"/>
       <c r="I9" s="58"/>
       <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
@@ -3532,13 +3560,13 @@
       <c r="F10" s="12">
         <v>4</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
@@ -3554,15 +3582,15 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="43" t="s">
+      <c r="B12" s="86"/>
+      <c r="C12" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -3574,24 +3602,24 @@
       <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="49" t="s">
+      <c r="E14" s="77"/>
+      <c r="F14" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="49" t="s">
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
@@ -3600,55 +3628,55 @@
       <c r="B15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="64" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="64"/>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="87" t="s">
+      <c r="G15" s="63"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="57"/>
+      <c r="F16" s="56" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="73" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="75" t="s">
+      <c r="E17" s="59"/>
+      <c r="F17" s="56" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
@@ -3657,21 +3685,21 @@
       <c r="B18" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="101" t="s">
+      <c r="C18" s="70"/>
+      <c r="D18" s="97" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="64"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="87" t="s">
+      <c r="G18" s="63"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
@@ -3680,38 +3708,38 @@
       <c r="B19" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="64"/>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="87" t="s">
+      <c r="G19" s="63"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="76" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="78" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="95"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
@@ -3720,21 +3748,21 @@
       <c r="B21" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="101" t="s">
+      <c r="C21" s="70"/>
+      <c r="D21" s="97" t="s">
         <v>87</v>
       </c>
       <c r="E21" s="64"/>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="87" t="s">
+      <c r="G21" s="63"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
@@ -3743,21 +3771,21 @@
       <c r="B22" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="101" t="s">
+      <c r="C22" s="70"/>
+      <c r="D22" s="97" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="64"/>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="87" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="88"/>
-      <c r="K22" s="89"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="48"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
@@ -3766,53 +3794,69 @@
       <c r="B23" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="65"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="64"/>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="87" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="76" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="78" t="s">
+      <c r="E24" s="41"/>
+      <c r="F24" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="95"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="G8:K8"/>
@@ -3829,34 +3873,18 @@
     <mergeCell ref="I19:K20"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
   </mergeCells>
   <conditionalFormatting sqref="I15:K20">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
@@ -3882,6 +3910,10 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G7:K7" r:id="rId1" display="Missing_Start_Time_data.csv"/>
+    <hyperlink ref="G8:K8" r:id="rId2" display="Missing_End_Time_data.csv"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3912,21 +3944,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
       <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
@@ -3937,10 +3969,10 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="19" t="s">
         <v>17</v>
       </c>
@@ -3969,10 +4001,10 @@
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
@@ -3982,10 +4014,10 @@
       <c r="E4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="10" t="s">
         <v>21</v>
       </c>
@@ -4008,43 +4040,43 @@
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>1</v>
       </c>
       <c r="B7" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="2"/>
       <c r="F7" s="26">
         <v>1</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
@@ -4053,19 +4085,19 @@
       <c r="B8" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="2"/>
       <c r="F8" s="27">
         <v>2</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="56" t="s">
         <v>122</v>
       </c>
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="59"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
@@ -4074,15 +4106,15 @@
       <c r="B9" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="2"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -4098,15 +4130,15 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -4118,24 +4150,24 @@
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="49" t="s">
+      <c r="E13" s="77"/>
+      <c r="F13" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="49" t="s">
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
@@ -4144,55 +4176,55 @@
       <c r="B14" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="64" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="64"/>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="87" t="s">
+      <c r="G14" s="63"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="75" t="s">
+      <c r="E15" s="57"/>
+      <c r="F15" s="56" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="73" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="59"/>
+      <c r="F16" s="56" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
@@ -4201,21 +4233,21 @@
       <c r="B17" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="101" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="97" t="s">
         <v>124</v>
       </c>
       <c r="E17" s="64"/>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="87" t="s">
+      <c r="G17" s="63"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
@@ -4224,38 +4256,38 @@
       <c r="B18" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="64"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="87" t="s">
+      <c r="G18" s="63"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="76" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="78" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="95"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="38" t="s">
@@ -4267,27 +4299,13 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:K7"/>
@@ -4300,13 +4318,27 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:K19">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -4318,9 +4350,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
+    <hyperlink ref="G7:K7" r:id="rId2" display="Missing_Employee_ID_data.csv"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4350,21 +4383,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="85"/>
-      <c r="G1" s="86"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="H1" s="15" t="s">
         <v>4</v>
       </c>
@@ -4376,10 +4409,10 @@
       <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="19" t="s">
         <v>17</v>
       </c>
@@ -4410,10 +4443,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
@@ -4452,53 +4485,53 @@
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="2"/>
       <c r="F7" s="29">
         <v>1</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>2</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="2"/>
       <c r="F8" s="30">
         <v>2</v>
@@ -4509,24 +4542,24 @@
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="59"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="32">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="2"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -4542,15 +4575,15 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -4562,24 +4595,24 @@
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="49" t="s">
+      <c r="E13" s="77"/>
+      <c r="F13" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="49" t="s">
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
@@ -4588,78 +4621,78 @@
       <c r="B14" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="64" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="64"/>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="87" t="s">
+      <c r="G14" s="63"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="73" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="75" t="s">
+      <c r="E15" s="59"/>
+      <c r="F15" s="56" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="76" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="78" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>2</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="81" t="s">
+      <c r="E17" s="55"/>
+      <c r="F17" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="70" t="s">
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
@@ -4668,263 +4701,262 @@
       <c r="B18" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="64" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="64"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="87" t="s">
+      <c r="G18" s="63"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="73" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="75" t="s">
+      <c r="E19" s="59"/>
+      <c r="F19" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="75" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="75" t="s">
+      <c r="E20" s="57"/>
+      <c r="F20" s="56" t="s">
         <v>98</v>
       </c>
       <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="75" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="75" t="s">
+      <c r="E21" s="57"/>
+      <c r="F21" s="56" t="s">
         <v>99</v>
       </c>
       <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="75" t="s">
+      <c r="B22" s="103"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="75" t="s">
+      <c r="E22" s="57"/>
+      <c r="F22" s="56" t="s">
         <v>112</v>
       </c>
       <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="75" t="s">
+      <c r="B23" s="103"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="75" t="s">
+      <c r="E23" s="57"/>
+      <c r="F23" s="56" t="s">
         <v>113</v>
       </c>
       <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="76" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="78" t="s">
+      <c r="E24" s="41"/>
+      <c r="F24" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="95"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
         <v>4</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="66" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="66" t="s">
+      <c r="E25" s="62"/>
+      <c r="F25" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="87" t="s">
+      <c r="G25" s="63"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="75" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="75" t="s">
+      <c r="E26" s="57"/>
+      <c r="F26" s="56" t="s">
         <v>101</v>
       </c>
       <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="75" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="75" t="s">
+      <c r="E27" s="57"/>
+      <c r="F27" s="56" t="s">
         <v>102</v>
       </c>
       <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="75" t="s">
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="75" t="s">
+      <c r="E28" s="57"/>
+      <c r="F28" s="56" t="s">
         <v>103</v>
       </c>
       <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
     </row>
     <row r="29" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="75" t="s">
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="75" t="s">
+      <c r="E29" s="57"/>
+      <c r="F29" s="56" t="s">
         <v>104</v>
       </c>
       <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="104"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="76" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="78" t="s">
+      <c r="E30" s="41"/>
+      <c r="F30" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="62"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="95"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I25:K30"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:H17"/>
@@ -4941,34 +4973,35 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I25:K30"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:K24 I25">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -4978,6 +5011,9 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G7:K7" r:id="rId1" display="Four_companies_data.csv"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
